--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-56801.08237865024</v>
+        <v>-58688.6638950527</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>547439.9702135004</v>
+        <v>191141.7938579537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>307.8482982637515</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>37.63609173734485</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>91.82580793753503</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>201.089163843681</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>16.82161760581692</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>20.74894808697008</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>50.05665370612839</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>233.1020523603611</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,10 +1190,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>142.9046269258097</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>54.63122185700568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>37.88638099191827</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>73.21532344290777</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>86.64257830589499</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>21.12833712222971</v>
+        <v>28.22523322473833</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.3521919907242</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>101.4950386131013</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056516</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>111.9679966130648</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>66.90445977359171</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2530,19 +2530,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>216.2198043113945</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056512</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>93.4122163896554</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>42.5040578060264</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>78.22041541354979</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571487</v>
+        <v>55.21598883571504</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523584</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522977</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3794,7 +3794,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463131</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1714.263756178945</v>
+        <v>1117.004887669471</v>
       </c>
       <c r="C2" t="n">
-        <v>1345.301239238533</v>
+        <v>1117.004887669471</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2440.498169710139</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W2" t="n">
-        <v>2087.729514440025</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X2" t="n">
-        <v>1714.263756178945</v>
+        <v>1893.744059709404</v>
       </c>
       <c r="Y2" t="n">
-        <v>1714.263756178945</v>
+        <v>1503.604727733592</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,13 +4425,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>635.3756428553887</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>635.3756428553887</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="U4" t="n">
-        <v>635.3756428553887</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="V4" t="n">
-        <v>380.6911546495019</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W4" t="n">
-        <v>380.6911546495019</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>380.6911546495019</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.6911546495019</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1229.941371236149</v>
+        <v>1053.350203651864</v>
       </c>
       <c r="C5" t="n">
-        <v>1229.941371236149</v>
+        <v>1053.350203651864</v>
       </c>
       <c r="D5" t="n">
-        <v>871.6756726293982</v>
+        <v>1053.350203651864</v>
       </c>
       <c r="E5" t="n">
-        <v>485.8874200311539</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>74.90151524154635</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X5" t="n">
-        <v>1620.08070321196</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y5" t="n">
-        <v>1229.941371236149</v>
+        <v>1053.350203651864</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4729,43 +4729,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>184.027325963587</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628376</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284805</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W8" t="n">
-        <v>1749.341643278937</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="X8" t="n">
-        <v>1749.341643278937</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.341643278937</v>
+        <v>1640.777806202927</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>245.45494510253</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>512.2963347852319</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X10" t="n">
-        <v>245.45494510253</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>245.45494510253</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5124,13 +5124,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L12" t="n">
-        <v>97.21709146028584</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M12" t="n">
-        <v>417.5524109899876</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N12" t="n">
-        <v>1138.699705022018</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O12" t="n">
         <v>1808.163466324677</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.8104215925219</v>
+        <v>171.1719636248392</v>
       </c>
       <c r="C13" t="n">
-        <v>415.8104215925219</v>
+        <v>171.1719636248392</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>171.1719636248392</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>171.1719636248392</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>171.1719636248392</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>171.1719636248392</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5203,7 +5203,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609665</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550797</v>
+        <v>909.3712637033472</v>
       </c>
       <c r="W13" t="n">
-        <v>643.7999724905393</v>
+        <v>619.9540936663866</v>
       </c>
       <c r="X13" t="n">
-        <v>415.8104215925219</v>
+        <v>391.9645427683693</v>
       </c>
       <c r="Y13" t="n">
-        <v>415.8104215925219</v>
+        <v>171.1719636248392</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5270,25 +5270,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5297,31 +5297,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>97.21709146028587</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M15" t="n">
-        <v>417.5524109899877</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N15" t="n">
-        <v>1221.963989254138</v>
+        <v>1899.959921985247</v>
       </c>
       <c r="O15" t="n">
-        <v>1891.427750556798</v>
+        <v>2569.423683287906</v>
       </c>
       <c r="P15" t="n">
-        <v>2411.728372292545</v>
+        <v>2569.423683287906</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>268.6754855415405</v>
+        <v>444.7802503911732</v>
       </c>
       <c r="C16" t="n">
-        <v>268.6754855415405</v>
+        <v>275.8440674632664</v>
       </c>
       <c r="D16" t="n">
-        <v>118.5588461292048</v>
+        <v>125.7274280509306</v>
       </c>
       <c r="E16" t="n">
-        <v>118.5588461292048</v>
+        <v>125.7274280509306</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,13 +5452,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
@@ -5467,19 +5467,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765185</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765185</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W16" t="n">
-        <v>496.6650364395579</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X16" t="n">
-        <v>268.6754855415405</v>
+        <v>847.2212943649431</v>
       </c>
       <c r="Y16" t="n">
-        <v>268.6754855415405</v>
+        <v>626.428715221413</v>
       </c>
     </row>
     <row r="17">
@@ -5498,40 +5498,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5595,25 +5595,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M18" t="n">
-        <v>334.288126757867</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022018</v>
+        <v>1423.179110240432</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>558.0926555785011</v>
+        <v>199.7373324836205</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0926555785011</v>
+        <v>199.7373324836205</v>
       </c>
       <c r="D19" t="n">
-        <v>558.0926555785011</v>
+        <v>199.7373324836205</v>
       </c>
       <c r="E19" t="n">
-        <v>558.0926555785011</v>
+        <v>199.7373324836205</v>
       </c>
       <c r="F19" t="n">
-        <v>411.2027080805907</v>
+        <v>199.7373324836205</v>
       </c>
       <c r="G19" t="n">
-        <v>243.0273864004113</v>
+        <v>199.7373324836205</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>199.7373324836205</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765184</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W19" t="n">
-        <v>786.0822064765184</v>
+        <v>609.3753482118775</v>
       </c>
       <c r="X19" t="n">
-        <v>558.0926555785011</v>
+        <v>381.3857973138602</v>
       </c>
       <c r="Y19" t="n">
-        <v>558.0926555785011</v>
+        <v>381.3857973138602</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,16 +5735,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,7 +5753,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L21" t="n">
-        <v>381.3300194168667</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M21" t="n">
-        <v>1149.698165809328</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N21" t="n">
-        <v>1954.109744073479</v>
+        <v>1565.426559416552</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5917,13 +5917,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765188</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706319</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336713</v>
+        <v>619.9540936663861</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>391.9645427683688</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,28 +6005,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>381.3300194168667</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1149.698165809328</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N24" t="n">
-        <v>1954.109744073479</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>164.7973538578532</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028601</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028601</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028601</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028601</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241959</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>385.5899330013833</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013833</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>164.7973538578532</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,7 +6245,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1122.004430061687</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M27" t="n">
-        <v>1819.161927111988</v>
+        <v>1288.23129327894</v>
       </c>
       <c r="N27" t="n">
-        <v>2623.573505376138</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726215</v>
       </c>
       <c r="D28" t="n">
         <v>97.21709146028584</v>
@@ -6382,22 +6382,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765184</v>
+        <v>1080.592417734672</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706316</v>
+        <v>825.9079295287854</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336709</v>
+        <v>825.9079295287854</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>597.9183786307681</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>597.9183786307681</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,31 +6479,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>711.1141612171745</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M30" t="n">
-        <v>1479.482307609636</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.893885873787</v>
+        <v>1402.926441340468</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2072.390202643127</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>494.8466681110226</v>
+        <v>439.5324299542165</v>
       </c>
       <c r="C31" t="n">
-        <v>494.8466681110226</v>
+        <v>326.3571123076802</v>
       </c>
       <c r="D31" t="n">
-        <v>400.4908939800576</v>
+        <v>232.001338176715</v>
       </c>
       <c r="E31" t="n">
-        <v>308.3386656790353</v>
+        <v>232.001338176715</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557761</v>
+        <v>232.001338176715</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864669</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962047</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818803</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894287</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386972</v>
+        <v>902.6804289818917</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220507</v>
+        <v>730.4517433652451</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598914</v>
+        <v>565.4200295030856</v>
       </c>
     </row>
     <row r="32">
@@ -6677,28 +6677,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6835,10 +6835,10 @@
         <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083204</v>
@@ -6853,55 +6853,55 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045216</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010325</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6911,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6980,7 +6980,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1961.218619068864</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>2209.972033152826</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2392.615510766178</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
         <v>559.3441472229671</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7175,16 +7175,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7199,25 +7199,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>352.8380350170344</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7348,22 +7348,22 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,19 +7400,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,7 +7421,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7430,31 +7430,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>381.3300194168667</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M42" t="n">
-        <v>1149.698165809328</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N42" t="n">
-        <v>1954.109744073479</v>
+        <v>1824.002963247254</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2072.756377331216</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525396</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028587</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M45" t="n">
-        <v>865.5852378527475</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="N45" t="n">
-        <v>1669.996816116898</v>
+        <v>1640.883299539163</v>
       </c>
       <c r="O45" t="n">
-        <v>2339.460577419557</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525397</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8772,7 +8772,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -9009,7 +9009,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>183.9411781172656</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>329.7461902274305</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9969,7 +9969,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>228.7561387742036</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,28 +11376,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>300.8287239274892</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>75.69850492462835</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>199.880420030696</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>124.2927109007015</v>
+        <v>117.1958147981929</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>4.561636376811939</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>8.924206851170709</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.3938331833856</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>106.61665673903</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>100.3423613250361</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24652,19 +24652,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>70.01754808718277</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338594</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801221</v>
       </c>
       <c r="F31" t="n">
-        <v>47.71373358834773</v>
+        <v>90.21779139437429</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>33.06989642127083</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>93.71057173897917</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523567</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26317,43 +26317,43 @@
         <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="E2" t="n">
-        <v>254168.8888295108</v>
+        <v>254168.8888295107</v>
       </c>
       <c r="F2" t="n">
         <v>254168.8888295108</v>
       </c>
       <c r="G2" t="n">
-        <v>254168.8888295108</v>
+        <v>254168.8888295107</v>
       </c>
       <c r="H2" t="n">
         <v>254168.8888295107</v>
       </c>
       <c r="I2" t="n">
-        <v>254168.8888295108</v>
+        <v>254168.8888295107</v>
       </c>
       <c r="J2" t="n">
         <v>254168.8888295107</v>
       </c>
       <c r="K2" t="n">
-        <v>264434.389274426</v>
+        <v>264434.3892744253</v>
       </c>
       <c r="L2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="M2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058924</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.575205892</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058923</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284554</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086686</v>
+        <v>10342.90680086697</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284559</v>
       </c>
     </row>
     <row r="4">
@@ -26418,34 +26418,34 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="D4" t="n">
         <v>139059.139180619</v>
-      </c>
-      <c r="D4" t="n">
-        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758437</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758785</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
+        <v>787.7936905759302</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="J4" t="n">
-        <v>787.7936905758822</v>
-      </c>
       <c r="K4" t="n">
-        <v>18952.41620477243</v>
+        <v>18952.41620477242</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
         <v>23206.58093189637</v>
@@ -26454,10 +26454,10 @@
         <v>23206.58093189635</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189632</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26485,16 +26485,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022276</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26506,10 +26506,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-545047.5212526808</v>
+        <v>-545047.5212526809</v>
       </c>
       <c r="C6" t="n">
-        <v>44920.35796186366</v>
+        <v>44920.35796186354</v>
       </c>
       <c r="D6" t="n">
-        <v>44920.35796186366</v>
+        <v>44920.35796186376</v>
       </c>
       <c r="E6" t="n">
-        <v>-363766.267286678</v>
+        <v>-363863.7264126501</v>
       </c>
       <c r="F6" t="n">
-        <v>161393.7691902184</v>
+        <v>161296.3100642461</v>
       </c>
       <c r="G6" t="n">
-        <v>161393.7691902183</v>
+        <v>161296.3100642461</v>
       </c>
       <c r="H6" t="n">
-        <v>161393.7691902182</v>
+        <v>161296.3100642461</v>
       </c>
       <c r="I6" t="n">
-        <v>161393.7691902183</v>
+        <v>161296.310064246</v>
       </c>
       <c r="J6" t="n">
-        <v>-15029.45000237478</v>
+        <v>-15126.90912834693</v>
       </c>
       <c r="K6" t="n">
-        <v>104691.1592365851</v>
+        <v>104672.6654986503</v>
       </c>
       <c r="L6" t="n">
-        <v>135573.9816531036</v>
+        <v>135573.9816531034</v>
       </c>
       <c r="M6" t="n">
-        <v>11115.87322013326</v>
+        <v>11115.87322013338</v>
       </c>
       <c r="N6" t="n">
-        <v>145916.8884539705</v>
+        <v>145916.8884539707</v>
       </c>
       <c r="O6" t="n">
-        <v>145916.8884539705</v>
+        <v>145916.8884539703</v>
       </c>
       <c r="P6" t="n">
-        <v>101754.2831511248</v>
+        <v>101754.283151125</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26753,22 +26753,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108357</v>
+        <v>12.92863350108371</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855693</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>46.83474335693143</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>290.1161667327901</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>120.3197310124839</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>23.94594161440332</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>365.1087524664449</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>393.0352219338249</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>162.0888852438905</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>96.92615468724685</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>149.6317893031195</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>206.3363417916033</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>90.78982616592558</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>214.2512623319097</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29527,10 +29527,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31379,25 +31379,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>177.5954266578334</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,10 +31592,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
@@ -31604,7 +31604,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423999</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31622,19 +31622,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31844,16 +31844,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>185.2928442992128</v>
       </c>
       <c r="N12" t="n">
-        <v>380.4309478731435</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458549</v>
@@ -32008,7 +32008,7 @@
         <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
         <v>562.4526372540886</v>
@@ -32084,7 +32084,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813462</v>
@@ -32093,13 +32093,13 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>143.8894692628929</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32324,7 +32324,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>308.8741188753936</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32333,10 +32333,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32555,19 +32555,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>54.69678998811281</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>221.9175268955028</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -32576,10 +32576,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32789,19 +32789,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>54.69678998811281</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -32810,13 +32810,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,16 +32962,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>380.6284621420188</v>
+        <v>64.14576305427147</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33263,34 +33263,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>91.84465193776708</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>63.43474313802665</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,16 +33436,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,19 +33497,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>23.85840434223309</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33518,16 +33518,16 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,19 +33734,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33755,16 +33755,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>152.4580040397286</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33916,7 +33916,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
         <v>76.0697047810465</v>
@@ -33974,28 +33974,28 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34132,7 +34132,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
         <v>526.796267130444</v>
@@ -34214,25 +34214,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>54.69678998811276</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>63.06486971571462</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34451,31 +34451,31 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>102.4943942860908</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>428.8615014901185</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>508.8638741271944</v>
       </c>
       <c r="N12" t="n">
-        <v>728.4316101333637</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35656,7 +35656,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35729,10 +35729,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415665</v>
@@ -35741,13 +35741,13 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.9849829127205</v>
+        <v>43.95940403124411</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>656.8747811356138</v>
       </c>
       <c r="O18" t="n">
         <v>676.2260215178377</v>
@@ -35981,10 +35981,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>286.9827555116978</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>473.1836017277879</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>286.9827555116978</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>187.6121563054121</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>704.1994919700004</v>
+        <v>387.7167928822531</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>343.1107267700522</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>247.9231043636336</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412247</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.4289566004317</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>347.4294341702147</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>222.5535176895561</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>90.20175899432947</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37862,25 +37862,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>286.9827555116977</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>247.5532309413215</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>158.2324794830448</v>
       </c>
       <c r="P45" t="n">
-        <v>286.9827555116977</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
